--- a/app/ChessDB_initial_data.xlsx
+++ b/app/ChessDB_initial_data.xlsx
@@ -995,295 +995,295 @@
     <t>team_id</t>
   </si>
   <si>
+    <t>contract_start</t>
+  </si>
+  <si>
+    <t>contract_finish</t>
+  </si>
+  <si>
+    <t>carol</t>
+  </si>
+  <si>
+    <t>coachpw</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>david_b</t>
+  </si>
+  <si>
+    <t>dPass!99</t>
+  </si>
+  <si>
+    <t>15-02-2024</t>
+  </si>
+  <si>
+    <t>15-02-2026</t>
+  </si>
+  <si>
+    <t>emma_green</t>
+  </si>
+  <si>
+    <t>E@mma77</t>
+  </si>
+  <si>
+    <t>fatih</t>
+  </si>
+  <si>
+    <t>FatihC21</t>
+  </si>
+  <si>
+    <t>Fatih</t>
+  </si>
+  <si>
+    <t>Ceylan</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>hana</t>
+  </si>
+  <si>
+    <t>Hana$45</t>
+  </si>
+  <si>
+    <t>Hana</t>
+  </si>
+  <si>
+    <t>Yamada</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>lucaas</t>
+  </si>
+  <si>
+    <t>Lucas#1</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>mia_rose</t>
+  </si>
+  <si>
+    <t>Mia!888</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>onur</t>
+  </si>
+  <si>
+    <t>onUr@32</t>
+  </si>
+  <si>
+    <t>Onur</t>
+  </si>
+  <si>
+    <t>Kaya</t>
+  </si>
+  <si>
+    <t>15-03-2023</t>
+  </si>
+  <si>
+    <t>15-09-2025</t>
+  </si>
+  <si>
+    <t>sofia_lop</t>
+  </si>
+  <si>
+    <t>S0fia#</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>arslan_yusuf</t>
+  </si>
+  <si>
+    <t>Yusuf199</t>
+  </si>
+  <si>
+    <t>Arslan</t>
+  </si>
+  <si>
+    <t>coach_username</t>
+  </si>
+  <si>
+    <t>certification</t>
+  </si>
+  <si>
+    <t>FIDE Certified</t>
+  </si>
+  <si>
+    <t>National Level</t>
+  </si>
+  <si>
+    <t>Regional Certified</t>
+  </si>
+  <si>
+    <t>Club Level</t>
+  </si>
+  <si>
+    <t>team_name</t>
+  </si>
+  <si>
+    <t>sponsor_id</t>
+  </si>
+  <si>
+    <t>Knights</t>
+  </si>
+  <si>
+    <t>Rooks</t>
+  </si>
+  <si>
+    <t>Bishops</t>
+  </si>
+  <si>
+    <t>Pawns</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Castles</t>
+  </si>
+  <si>
+    <t>Checkmates</t>
+  </si>
+  <si>
+    <t>En Passants</t>
+  </si>
+  <si>
+    <t>Blitz Masters</t>
+  </si>
+  <si>
+    <t>sponsor_name</t>
+  </si>
+  <si>
+    <t>ChessVision</t>
+  </si>
+  <si>
+    <t>Grandmaster Corp</t>
+  </si>
+  <si>
+    <t>Queen’s Gambit Ltd.</t>
+  </si>
+  <si>
+    <t>MateMate Inc.</t>
+  </si>
+  <si>
+    <t>RookTech</t>
+  </si>
+  <si>
+    <t>PawnPower Solutions</t>
+  </si>
+  <si>
+    <t>CheckSecure AG</t>
+  </si>
+  <si>
+    <t>Endgame Enterprises</t>
+  </si>
+  <si>
+    <t>King's Arena Foundation</t>
+  </si>
+  <si>
+    <t>experience_level</t>
+  </si>
+  <si>
+    <t>erin</t>
+  </si>
+  <si>
+    <t>arbpw</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>refpass</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>lucy</t>
+  </si>
+  <si>
+    <t>arb123</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>ahmet</t>
+  </si>
+  <si>
+    <t>pass2024</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Yılmaz</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>ana</t>
+  </si>
+  <si>
+    <t>secretpw</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Costa</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
     <t>james</t>
-  </si>
-  <si>
-    <t>contract_start</t>
-  </si>
-  <si>
-    <t>contract_finish</t>
-  </si>
-  <si>
-    <t>carol</t>
-  </si>
-  <si>
-    <t>coachpw</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>david_b</t>
-  </si>
-  <si>
-    <t>dPass!99</t>
-  </si>
-  <si>
-    <t>15-02-2024</t>
-  </si>
-  <si>
-    <t>15-02-2026</t>
-  </si>
-  <si>
-    <t>emma_green</t>
-  </si>
-  <si>
-    <t>E@mma77</t>
-  </si>
-  <si>
-    <t>fatih</t>
-  </si>
-  <si>
-    <t>FatihC21</t>
-  </si>
-  <si>
-    <t>Fatih</t>
-  </si>
-  <si>
-    <t>Ceylan</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>hana</t>
-  </si>
-  <si>
-    <t>Hana$45</t>
-  </si>
-  <si>
-    <t>Hana</t>
-  </si>
-  <si>
-    <t>Yamada</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>lucaas</t>
-  </si>
-  <si>
-    <t>Lucas#1</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>mia_rose</t>
-  </si>
-  <si>
-    <t>Mia!888</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>onur</t>
-  </si>
-  <si>
-    <t>onUr@32</t>
-  </si>
-  <si>
-    <t>Onur</t>
-  </si>
-  <si>
-    <t>Kaya</t>
-  </si>
-  <si>
-    <t>15-03-2023</t>
-  </si>
-  <si>
-    <t>15-09-2025</t>
-  </si>
-  <si>
-    <t>sofia_lop</t>
-  </si>
-  <si>
-    <t>S0fia#</t>
-  </si>
-  <si>
-    <t>López</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>arslan_yusuf</t>
-  </si>
-  <si>
-    <t>Yusuf199</t>
-  </si>
-  <si>
-    <t>Arslan</t>
-  </si>
-  <si>
-    <t>coach_username</t>
-  </si>
-  <si>
-    <t>certification</t>
-  </si>
-  <si>
-    <t>FIDE Certified</t>
-  </si>
-  <si>
-    <t>National Level</t>
-  </si>
-  <si>
-    <t>Regional Certified</t>
-  </si>
-  <si>
-    <t>Club Level</t>
-  </si>
-  <si>
-    <t>team_name</t>
-  </si>
-  <si>
-    <t>sponsor_id</t>
-  </si>
-  <si>
-    <t>Knights</t>
-  </si>
-  <si>
-    <t>Rooks</t>
-  </si>
-  <si>
-    <t>Bishops</t>
-  </si>
-  <si>
-    <t>Pawns</t>
-  </si>
-  <si>
-    <t>Queens</t>
-  </si>
-  <si>
-    <t>Kings</t>
-  </si>
-  <si>
-    <t>Castles</t>
-  </si>
-  <si>
-    <t>Checkmates</t>
-  </si>
-  <si>
-    <t>En Passants</t>
-  </si>
-  <si>
-    <t>Blitz Masters</t>
-  </si>
-  <si>
-    <t>sponsor_name</t>
-  </si>
-  <si>
-    <t>ChessVision</t>
-  </si>
-  <si>
-    <t>Grandmaster Corp</t>
-  </si>
-  <si>
-    <t>Queen’s Gambit Ltd.</t>
-  </si>
-  <si>
-    <t>MateMate Inc.</t>
-  </si>
-  <si>
-    <t>RookTech</t>
-  </si>
-  <si>
-    <t>PawnPower Solutions</t>
-  </si>
-  <si>
-    <t>CheckSecure AG</t>
-  </si>
-  <si>
-    <t>Endgame Enterprises</t>
-  </si>
-  <si>
-    <t>King's Arena Foundation</t>
-  </si>
-  <si>
-    <t>experience_level</t>
-  </si>
-  <si>
-    <t>erin</t>
-  </si>
-  <si>
-    <t>arbpw</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>refpass</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Blake</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
-    <t>lucy</t>
-  </si>
-  <si>
-    <t>arb123</t>
-  </si>
-  <si>
-    <t>Lucy</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Expert</t>
-  </si>
-  <si>
-    <t>ahmet</t>
-  </si>
-  <si>
-    <t>pass2024</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Yılmaz</t>
-  </si>
-  <si>
-    <t>Beginner</t>
-  </si>
-  <si>
-    <t>ana</t>
-  </si>
-  <si>
-    <t>secretpw</t>
-  </si>
-  <si>
-    <t>Ana</t>
-  </si>
-  <si>
-    <t>Costa</t>
-  </si>
-  <si>
-    <t>Brazil</t>
   </si>
   <si>
     <t>secure1</t>
@@ -29891,20 +29891,20 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>430</v>
@@ -29912,7 +29912,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>431</v>
@@ -29920,7 +29920,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>432</v>
@@ -29928,15 +29928,15 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>433</v>
@@ -30026,7 +30026,7 @@
         <v>440</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D4" s="3">
         <v>12.0</v>
@@ -30040,7 +30040,7 @@
         <v>441</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" s="3">
         <v>6.0</v>
@@ -30068,7 +30068,7 @@
         <v>444</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D7" s="3">
         <v>10.0</v>
@@ -30082,7 +30082,7 @@
         <v>445</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D8" s="3">
         <v>7.0</v>
@@ -30110,7 +30110,7 @@
         <v>448</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D10" s="3">
         <v>6.0</v>
@@ -30124,7 +30124,7 @@
         <v>449</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D11" s="3">
         <v>5.0</v>
@@ -30351,7 +30351,7 @@
         <v>2.0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I2" s="3">
         <v>8.2</v>
@@ -30380,7 +30380,7 @@
         <v>4.0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I3" s="3">
         <v>7.9</v>
@@ -30409,7 +30409,7 @@
         <v>6.0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>458</v>
@@ -30438,7 +30438,7 @@
         <v>8.0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I5" s="3">
         <v>8.5</v>
@@ -30467,7 +30467,7 @@
         <v>10.0</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>458</v>
@@ -30525,7 +30525,7 @@
         <v>5.0</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I8" s="3">
         <v>4.5</v>
@@ -30583,7 +30583,7 @@
         <v>9.0</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I10" s="3">
         <v>7.7</v>
@@ -30612,7 +30612,7 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I11" s="3">
         <v>6.4</v>
@@ -30641,7 +30641,7 @@
         <v>5.0</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="I12" s="3">
         <v>5.1</v>
@@ -30670,7 +30670,7 @@
         <v>6.0</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>458</v>
@@ -30757,7 +30757,7 @@
         <v>4.0</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I16" s="3">
         <v>7.1</v>
@@ -30786,7 +30786,7 @@
         <v>5.0</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I17" s="3">
         <v>6.3</v>
@@ -30815,7 +30815,7 @@
         <v>6.0</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>458</v>
@@ -30844,7 +30844,7 @@
         <v>10.0</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I19" s="3">
         <v>4.9</v>
@@ -30873,7 +30873,7 @@
         <v>8.0</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I20" s="3">
         <v>9.7</v>
@@ -30902,7 +30902,7 @@
         <v>9.0</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I21" s="3">
         <v>7.4</v>
@@ -33144,7 +33144,7 @@
     </row>
     <row r="45">
       <c r="A45" s="10" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B45" s="10">
         <v>4.0</v>
@@ -33235,27 +33235,27 @@
         <v>322</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="F2" s="3">
         <v>1.0</v>
@@ -33269,10 +33269,10 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>46</v>
@@ -33287,18 +33287,18 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>52</v>
@@ -33321,19 +33321,19 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="F5" s="3">
         <v>4.0</v>
@@ -33347,19 +33347,19 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>346</v>
       </c>
       <c r="F6" s="3">
         <v>5.0</v>
@@ -33373,10 +33373,10 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>274</v>
@@ -33385,7 +33385,7 @@
         <v>97</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F7" s="3">
         <v>6.0</v>
@@ -33399,10 +33399,10 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>102</v>
@@ -33411,7 +33411,7 @@
         <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F8" s="3">
         <v>7.0</v>
@@ -33425,47 +33425,47 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>356</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F9" s="3">
         <v>8.0</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>223</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="F10" s="3">
         <v>9.0</v>
@@ -33479,19 +33479,19 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>364</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>176</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F11" s="3">
         <v>10.0</v>
@@ -40461,114 +40461,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15">
@@ -40599,10 +40599,10 @@
         <v>322</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="2">
@@ -40610,7 +40610,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3">
         <v>100.0</v>
@@ -40621,7 +40621,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C3" s="3">
         <v>101.0</v>
@@ -40632,7 +40632,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C4" s="3">
         <v>102.0</v>
@@ -40643,7 +40643,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" s="3">
         <v>100.0</v>
@@ -40654,7 +40654,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C6" s="3">
         <v>103.0</v>
@@ -40665,7 +40665,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C7" s="3">
         <v>104.0</v>
@@ -40676,7 +40676,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="3">
         <v>101.0</v>
@@ -40687,7 +40687,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="3">
         <v>105.0</v>
@@ -40699,7 +40699,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C10" s="3">
         <v>106.0</v>
@@ -40710,7 +40710,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C11" s="3">
         <v>107.0</v>
@@ -40736,10 +40736,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
@@ -40747,7 +40747,7 @@
         <v>100.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
@@ -40755,7 +40755,7 @@
         <v>101.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
@@ -40763,7 +40763,7 @@
         <v>102.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
@@ -40771,7 +40771,7 @@
         <v>103.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6">
@@ -40779,7 +40779,7 @@
         <v>104.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7">
@@ -40787,7 +40787,7 @@
         <v>105.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
@@ -40795,7 +40795,7 @@
         <v>106.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
@@ -40803,7 +40803,7 @@
         <v>107.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10">
@@ -40811,7 +40811,7 @@
         <v>108.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -40853,114 +40853,114 @@
         <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G1" s="13"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>398</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>399</v>
       </c>
       <c r="G2" s="13"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>419</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>323</v>
+        <v>419</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>420</v>
@@ -40975,7 +40975,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8">
@@ -40995,7 +40995,7 @@
         <v>424</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9">
@@ -41015,7 +41015,7 @@
         <v>429</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
